--- a/biology/Zoologie/Autour_australien/Autour_australien.xlsx
+++ b/biology/Zoologie/Autour_australien/Autour_australien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Accipiter fasciatus
 L’Autour australien (Accipiter fasciatus) est une espèce de rapaces de la famille des Accipitridae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 40 à 55 cm de longueur et a une envergure de 75 à 95 cm. Les mâles adultes pèsent 220 g, et les femelles 355 g. Les femelles sont nettement plus grandes que les mâles.
 Le dos est gris avec un collier marron; les parties inférieures sont essentiellement rousses, finement barrées de blanc. Ainsi, il ressemble à l'épervier à collier roux, mais en nettement plus grand. Le vol est rapide et flexible.
@@ -544,7 +558,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est largement répandu en Australie, en Tasmanie, Wallacea, Nouvelle-Guinée, Nouvelle-Calédonie, Vanuatu et Fidji. On le trouve dans les forêts et les zones boisées.
 </t>
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit essentiellement d'oiseaux mais aussi de petits mammifères, de reptiles, d'amphibiens, occasionnellement d'insectes.
 </t>
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche dans de grands arbres sur une plate-forme de bâtonnets et de brindilles doublée de feuilles vertes. La taille de la couvée est habituellement de 3, parfois 2 ou 4 œufs. La période d'incubation est d'environ 30 jours, avec les poussins s'envolant environ 31 jours après l'éclosion.
 </t>
@@ -637,7 +657,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe 12 sous-espèces :
 Accipiter fasciatus buruensis Stresemann 1914 
